--- a/Results/Experimento3[04_16_2023-11_28].xlsx
+++ b/Results/Experimento3[04_16_2023-11_28].xlsx
@@ -1,37 +1,126 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\Desktop\Seminario\Codes\Datasets\MNIST_ORG\NN_Tests_DG\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDA8461-F4E8-4C6C-9F1F-4095DFF8D398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>val_acc_list</t>
+  </si>
+  <si>
+    <t>test_acc</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>epochs</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>lr</t>
+  </si>
+  <si>
+    <t>val_acc</t>
+  </si>
+  <si>
+    <t>[0, 0.4266, 0.5714, 0.65, 0.6592, 0.7454, 0.7758, 0.7958, 0.8202, 0.8268, 0.8182, 0.804, 0.7994, 0.8068, 0.8268, 0.842, 0.8542, 0.8504, 0.775, 0.801, 0.6498, 0.7574, 0.845, 0.8614, 0.8628, 0.8656, 0.7922, 0.819, 0.7962, 0.8266, 0.8198, 0.8132, 0.8474, 0.8626, 0.8466, 0.8344, 0.842, 0.8344, 0.8752, 0.8786, 0.8784, 0.877, 0.8752, 0.8468, 0.8436, 0.839, 0.8498, 0.8762, 0.8778, 0.8796, 0.8734]</t>
+  </si>
+  <si>
+    <t>87.84%</t>
+  </si>
+  <si>
+    <t>[1.5480018377304077, 1.1918484687805175, 1.0277305841445923, 1.0770880341529847, 0.7498203814029694, 0.651681637763977, 0.6003695905208588, 0.5463015973567963, 0.5082092612981797, 0.5392710953950882, 0.5833808451890945, 0.6439709782600402, 0.5770230770111084, 0.5386096656322479, 0.48194833695888517, 0.4679786205291748, 0.47161213457584383, 0.7470980405807495, 0.6217015206813812, 1.197120451927185, 0.7953790247440338, 0.46280932426452637, 0.437995970249176, 0.4347927212715149, 0.44889671802520753, 0.6893128514289856, 0.6326455056667328, 0.6484527707099914, 0.536964961886406, 0.5960219740867615, 0.6561342179775238, 0.5226297855377198, 0.47757714092731474, 0.5272094249725342, 0.5863298773765564, 0.5493592113256455, 0.5780457049608231, 0.4381734788417816, 0.4404748409986496, 0.4520479112863541, 0.4507529616355896, 0.48235193490982053, 0.5931915283203125, 0.5865346789360046, 0.5952119112014771, 0.6109302848577499, 0.48136016726493835, 0.4704162687063217, 0.48466950953006743, 0.5280074179172516]</t>
+  </si>
+  <si>
+    <t>[0.045664926920516116, 0.05818890098542681, 0.08953435515904633, 0.09860189179897969, 0.04149916083930619, 0.03182711314024903, 0.019492637720137027, 0.017350385876080374, 0.017491081705582688, 0.04139264903819027, 0.04400791035577558, 0.0465709346373757, 0.034974076787492966, 0.018948993776527652, 0.013949342350213102, 0.012447410852048856, 0.05609716456023712, 0.08057803053104656, 0.08825202098377889, 0.09394154378234963, 0.03583881643352899, 0.019951184430052754, 0.014953318816721812, 0.009959288808999794, 0.08445657094717747, 0.08494891988314006, 0.09619227477222918, 0.09624905357625255, 0.07701736501139665, 0.07625892387282208, 0.05917318024877733, 0.03280614115279837, 0.07295361231335623, 0.07663502034115172, 0.0787961877872879, 0.08224327251531925, 0.020216238275753806, 0.013199419630992075, 0.012631075312420172, 0.011648404106284609, 0.018514740845339165, 0.050232842055794785, 0.07420817830199325, 0.07765963967769876, 0.058692235259522864, 0.026382694320282056, 0.022389250981658358, 0.014532220102498807, 0.030360542233540077, 0.04008415776063827]</t>
+  </si>
+  <si>
+    <t>87.34%</t>
+  </si>
+  <si>
+    <t>[0, 0.358, 0.421, 0.5044, 0.611, 0.6214, 0.7072, 0.7458, 0.7242, 0.7502, 0.7968, 0.8142, 0.802, 0.8138, 0.7858, 0.7636, 0.8158, 0.8352, 0.8268, 0.8242, 0.8378, 0.8402, 0.828, 0.8378, 0.8436, 0.848, 0.8372, 0.844, 0.852, 0.861, 0.8298, 0.8496, 0.867, 0.8526, 0.8618, 0.8152, 0.8358, 0.8574, 0.8658, 0.8476, 0.8564, 0.8654, 0.8562, 0.8512, 0.8634, 0.8554, 0.8686, 0.8644, 0.8622, 0.8606, 0.8582]</t>
+  </si>
+  <si>
+    <t>86.34%</t>
+  </si>
+  <si>
+    <t>[1.7408167719841003, 2.5579020500183107, 1.3753788232803346, 1.191773271560669, 1.06725515127182, 0.8525871694087982, 0.7331211388111114, 0.827997875213623, 0.7685804188251495, 0.6194914281368256, 0.542990380525589, 0.5971626162528991, 0.5554329633712769, 0.6639774680137634, 0.7846016228199005, 0.5800523042678833, 0.5066851615905762, 0.537603098154068, 0.5545213103294373, 0.4975010961294174, 0.5154407620429993, 0.54328773021698, 0.5318993955850602, 0.5363073498010635, 0.5214543402194977, 0.5471849173307419, 0.5363107651472092, 0.49515282213687895, 0.4525467395782471, 0.5789096117019653, 0.5372176706790924, 0.4579853266477585, 0.5363748669624329, 0.4733352541923523, 0.636682677268982, 0.6248118937015533, 0.5107437878847122, 0.49792906939983367, 0.6271078944206238, 0.5640686690807343, 0.48702511489391326, 0.5255963146686554, 0.5992318391799927, 0.5145316392183303, 0.5475691318511963, 0.4991946995258331, 0.5485367894172668, 0.539380106329918, 0.5393647909164428, 0.5659809619188308]</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>[0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01]</t>
+  </si>
+  <si>
+    <t>85.82%</t>
+  </si>
+  <si>
+    <t>[0, 0.219, 0.3098, 0.3846, 0.455, 0.492, 0.5136, 0.6104, 0.6316, 0.692, 0.695, 0.7054, 0.696, 0.7076, 0.7164, 0.7216, 0.713, 0.7212, 0.7218, 0.7288, 0.7142, 0.7316, 0.7008, 0.731, 0.7046, 0.742, 0.726, 0.7378, 0.7154, 0.7474, 0.7442, 0.7448, 0.7268, 0.751, 0.7226, 0.7528, 0.7484, 0.7636, 0.7424, 0.7586, 0.7518, 0.7588, 0.741, 0.7678, 0.7414, 0.7604, 0.7436, 0.7618, 0.7196, 0.763, 0.7348]</t>
+  </si>
+  <si>
+    <t>73.22%</t>
+  </si>
+  <si>
+    <t>[2.1140453815460205, 1.8418339848518372, 1.636965811252594, 1.4806758284568786, 1.4037752747535706, 1.3426872849464417, 1.0883264660835266, 1.0750168323516847, 0.9077944695949555, 0.8707393705844879, 0.8422006487846374, 0.8620707392692566, 0.8352803587913513, 0.8216261088848114, 0.8104485034942627, 0.8207309484481812, 0.8004387021064758, 0.8119038581848145, 0.7878627300262451, 0.832118570804596, 0.7783937335014344, 0.8467969059944153, 0.7765818476676941, 0.895460569858551, 0.7662074565887451, 0.8167042195796966, 0.7629565179347992, 0.854036420583725, 0.7509149551391602, 0.7485794842243194, 0.7434106409549713, 0.8399035513401032, 0.7401164948940278, 0.8540832996368408, 0.7414343118667602, 0.7755908012390137, 0.7116473913192749, 0.7829924166202545, 0.7283855140209198, 0.7503637909889221, 0.7299660265445709, 0.8178362429141999, 0.7122068524360656, 0.8455365717411041, 0.710795521736145, 0.8136175513267517, 0.7332480370998382, 0.8897373616695404, 0.718969851732254, 0.8556835353374481]</t>
+  </si>
+  <si>
+    <t>[0.09000000000000001, 0.08000000000000002, 0.07000000000000002, 0.06000000000000002, 0.05000000000000002, 0.040000000000000015, 0.030000000000000013, 0.02000000000000001, 0.01000000000000001, 1.0408340855860843e-17, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0]</t>
+  </si>
+  <si>
+    <t>73.48%</t>
+  </si>
+  <si>
+    <t>TA Ciclica Aleatoria Ext</t>
+  </si>
+  <si>
+    <t>TA Decreciente (propuesta)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +135,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,173 +459,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="65.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>val_acc_list</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>test_acc</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>cost</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>epochs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>lr</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>val_acc</t>
-        </is>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>[0, 0.4266, 0.5714, 0.65, 0.6592, 0.7454, 0.7758, 0.7958, 0.8202, 0.8268, 0.8182, 0.804, 0.7994, 0.8068, 0.8268, 0.842, 0.8542, 0.8504, 0.775, 0.801, 0.6498, 0.7574, 0.845, 0.8614, 0.8628, 0.8656, 0.7922, 0.819, 0.7962, 0.8266, 0.8198, 0.8132, 0.8474, 0.8626, 0.8466, 0.8344, 0.842, 0.8344, 0.8752, 0.8786, 0.8784, 0.877, 0.8752, 0.8468, 0.8436, 0.839, 0.8498, 0.8762, 0.8778, 0.8796, 0.8734]</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>87.84%</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[1.5480018377304077, 1.1918484687805175, 1.0277305841445923, 1.0770880341529847, 0.7498203814029694, 0.651681637763977, 0.6003695905208588, 0.5463015973567963, 0.5082092612981797, 0.5392710953950882, 0.5833808451890945, 0.6439709782600402, 0.5770230770111084, 0.5386096656322479, 0.48194833695888517, 0.4679786205291748, 0.47161213457584383, 0.7470980405807495, 0.6217015206813812, 1.197120451927185, 0.7953790247440338, 0.46280932426452637, 0.437995970249176, 0.4347927212715149, 0.44889671802520753, 0.6893128514289856, 0.6326455056667328, 0.6484527707099914, 0.536964961886406, 0.5960219740867615, 0.6561342179775238, 0.5226297855377198, 0.47757714092731474, 0.5272094249725342, 0.5863298773765564, 0.5493592113256455, 0.5780457049608231, 0.4381734788417816, 0.4404748409986496, 0.4520479112863541, 0.4507529616355896, 0.48235193490982053, 0.5931915283203125, 0.5865346789360046, 0.5952119112014771, 0.6109302848577499, 0.48136016726493835, 0.4704162687063217, 0.48466950953006743, 0.5280074179172516]</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
         <v>2492369</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Random Ciclico Extended</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[0.045664926920516116, 0.05818890098542681, 0.08953435515904633, 0.09860189179897969, 0.04149916083930619, 0.03182711314024903, 0.019492637720137027, 0.017350385876080374, 0.017491081705582688, 0.04139264903819027, 0.04400791035577558, 0.0465709346373757, 0.034974076787492966, 0.018948993776527652, 0.013949342350213102, 0.012447410852048856, 0.05609716456023712, 0.08057803053104656, 0.08825202098377889, 0.09394154378234963, 0.03583881643352899, 0.019951184430052754, 0.014953318816721812, 0.009959288808999794, 0.08445657094717747, 0.08494891988314006, 0.09619227477222918, 0.09624905357625255, 0.07701736501139665, 0.07625892387282208, 0.05917318024877733, 0.03280614115279837, 0.07295361231335623, 0.07663502034115172, 0.0787961877872879, 0.08224327251531925, 0.020216238275753806, 0.013199419630992075, 0.012631075312420172, 0.011648404106284609, 0.018514740845339165, 0.050232842055794785, 0.07420817830199325, 0.07765963967769876, 0.058692235259522864, 0.026382694320282056, 0.022389250981658358, 0.014532220102498807, 0.030360542233540077, 0.04008415776063827]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>87.34%</t>
-        </is>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>[0, 0.358, 0.421, 0.5044, 0.611, 0.6214, 0.7072, 0.7458, 0.7242, 0.7502, 0.7968, 0.8142, 0.802, 0.8138, 0.7858, 0.7636, 0.8158, 0.8352, 0.8268, 0.8242, 0.8378, 0.8402, 0.828, 0.8378, 0.8436, 0.848, 0.8372, 0.844, 0.852, 0.861, 0.8298, 0.8496, 0.867, 0.8526, 0.8618, 0.8152, 0.8358, 0.8574, 0.8658, 0.8476, 0.8564, 0.8654, 0.8562, 0.8512, 0.8634, 0.8554, 0.8686, 0.8644, 0.8622, 0.8606, 0.8582]</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>86.34%</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[1.7408167719841003, 2.5579020500183107, 1.3753788232803346, 1.191773271560669, 1.06725515127182, 0.8525871694087982, 0.7331211388111114, 0.827997875213623, 0.7685804188251495, 0.6194914281368256, 0.542990380525589, 0.5971626162528991, 0.5554329633712769, 0.6639774680137634, 0.7846016228199005, 0.5800523042678833, 0.5066851615905762, 0.537603098154068, 0.5545213103294373, 0.4975010961294174, 0.5154407620429993, 0.54328773021698, 0.5318993955850602, 0.5363073498010635, 0.5214543402194977, 0.5471849173307419, 0.5363107651472092, 0.49515282213687895, 0.4525467395782471, 0.5789096117019653, 0.5372176706790924, 0.4579853266477585, 0.5363748669624329, 0.4733352541923523, 0.636682677268982, 0.6248118937015533, 0.5107437878847122, 0.49792906939983367, 0.6271078944206238, 0.5640686690807343, 0.48702511489391326, 0.5255963146686554, 0.5992318391799927, 0.5145316392183303, 0.5475691318511963, 0.4991946995258331, 0.5485367894172668, 0.539380106329918, 0.5393647909164428, 0.5659809619188308]</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
         <v>2632890</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Adam</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01, 0.01]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>85.82%</t>
-        </is>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>[0, 0.219, 0.3098, 0.3846, 0.455, 0.492, 0.5136, 0.6104, 0.6316, 0.692, 0.695, 0.7054, 0.696, 0.7076, 0.7164, 0.7216, 0.713, 0.7212, 0.7218, 0.7288, 0.7142, 0.7316, 0.7008, 0.731, 0.7046, 0.742, 0.726, 0.7378, 0.7154, 0.7474, 0.7442, 0.7448, 0.7268, 0.751, 0.7226, 0.7528, 0.7484, 0.7636, 0.7424, 0.7586, 0.7518, 0.7588, 0.741, 0.7678, 0.7414, 0.7604, 0.7436, 0.7618, 0.7196, 0.763, 0.7348]</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>73.22%</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[2.1140453815460205, 1.8418339848518372, 1.636965811252594, 1.4806758284568786, 1.4037752747535706, 1.3426872849464417, 1.0883264660835266, 1.0750168323516847, 0.9077944695949555, 0.8707393705844879, 0.8422006487846374, 0.8620707392692566, 0.8352803587913513, 0.8216261088848114, 0.8104485034942627, 0.8207309484481812, 0.8004387021064758, 0.8119038581848145, 0.7878627300262451, 0.832118570804596, 0.7783937335014344, 0.8467969059944153, 0.7765818476676941, 0.895460569858551, 0.7662074565887451, 0.8167042195796966, 0.7629565179347992, 0.854036420583725, 0.7509149551391602, 0.7485794842243194, 0.7434106409549713, 0.8399035513401032, 0.7401164948940278, 0.8540832996368408, 0.7414343118667602, 0.7755908012390137, 0.7116473913192749, 0.7829924166202545, 0.7283855140209198, 0.7503637909889221, 0.7299660265445709, 0.8178362429141999, 0.7122068524360656, 0.8455365717411041, 0.710795521736145, 0.8136175513267517, 0.7332480370998382, 0.8897373616695404, 0.718969851732254, 0.8556835353374481]</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
         <v>2502490.25</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Nuestro decreciente con Momentum</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>[0.09000000000000001, 0.08000000000000002, 0.07000000000000002, 0.06000000000000002, 0.05000000000000002, 0.040000000000000015, 0.030000000000000013, 0.02000000000000001, 0.01000000000000001, 1.0408340855860843e-17, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0, 0.01, 0.0]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>73.48%</t>
-        </is>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
